--- a/App.Web/App_Data/SolicitudTransparencia.xlsx
+++ b/App.Web/App_Data/SolicitudTransparencia.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\Reportes\Cometidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\SourceNew\App.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15792" windowHeight="3984"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="15795" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -93,8 +93,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,10 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,108 +423,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Q2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="1">
         <v>40</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>50</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>60</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>100</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>40</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>50</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>60</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>100</v>
       </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1">
+  <autoFilter ref="A1:Z2">
     <filterColumn colId="16" showButton="0"/>
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
@@ -518,10 +556,29 @@
     <filterColumn colId="21" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:X1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>